--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ncam1-Gfra1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ncam1-Gfra1.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5869213333333333</v>
+        <v>1.296878333333333</v>
       </c>
       <c r="H2">
-        <v>1.760764</v>
+        <v>3.890635</v>
       </c>
       <c r="I2">
-        <v>0.01834079054277507</v>
+        <v>0.01774073260139904</v>
       </c>
       <c r="J2">
-        <v>0.02446997850397404</v>
+        <v>0.02506266560199287</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.12783</v>
+        <v>0.1011536666666667</v>
       </c>
       <c r="N2">
-        <v>0.38349</v>
+        <v>0.303461</v>
       </c>
       <c r="O2">
-        <v>0.007411519513986452</v>
+        <v>0.007629860605400263</v>
       </c>
       <c r="P2">
-        <v>0.008565831359064333</v>
+        <v>0.008254451482408482</v>
       </c>
       <c r="Q2">
-        <v>0.07502615404</v>
+        <v>0.1311839986372222</v>
       </c>
       <c r="R2">
-        <v>0.67523538636</v>
+        <v>1.180655987735</v>
       </c>
       <c r="S2">
-        <v>0.0001359331270097156</v>
+        <v>0.0001353593167863547</v>
       </c>
       <c r="T2">
-        <v>0.000209605709224971</v>
+        <v>0.0002068785572314781</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5869213333333333</v>
+        <v>1.296878333333333</v>
       </c>
       <c r="H3">
-        <v>1.760764</v>
+        <v>3.890635</v>
       </c>
       <c r="I3">
-        <v>0.01834079054277507</v>
+        <v>0.01774073260139904</v>
       </c>
       <c r="J3">
-        <v>0.02446997850397404</v>
+        <v>0.02506266560199287</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>30.440863</v>
       </c>
       <c r="O3">
-        <v>0.5883153410704013</v>
+        <v>0.7653686681256785</v>
       </c>
       <c r="P3">
-        <v>0.6799428899903026</v>
+        <v>0.8280227993585454</v>
       </c>
       <c r="Q3">
-        <v>5.955463966592444</v>
+        <v>13.15936522422278</v>
       </c>
       <c r="R3">
-        <v>53.599175699332</v>
+        <v>118.434287018005</v>
       </c>
       <c r="S3">
-        <v>0.0107901684436735</v>
+        <v>0.01357820088270659</v>
       </c>
       <c r="T3">
-        <v>0.01663818790199269</v>
+        <v>0.02075245853114926</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5869213333333333</v>
+        <v>1.296878333333333</v>
       </c>
       <c r="H4">
-        <v>1.760764</v>
+        <v>3.890635</v>
       </c>
       <c r="I4">
-        <v>0.01834079054277507</v>
+        <v>0.01774073260139904</v>
       </c>
       <c r="J4">
-        <v>0.02446997850397404</v>
+        <v>0.02506266560199287</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.972691</v>
+        <v>3.0094955</v>
       </c>
       <c r="N4">
-        <v>13.945382</v>
+        <v>6.018991</v>
       </c>
       <c r="O4">
-        <v>0.4042731394156123</v>
+        <v>0.2270014712689213</v>
       </c>
       <c r="P4">
-        <v>0.3114912786506331</v>
+        <v>0.1637227491590462</v>
       </c>
       <c r="Q4">
-        <v>4.092421098641333</v>
+        <v>3.902949508214167</v>
       </c>
       <c r="R4">
-        <v>24.554526591848</v>
+        <v>23.417697049285</v>
       </c>
       <c r="S4">
-        <v>0.007414688972091848</v>
+        <v>0.004027172401906099</v>
       </c>
       <c r="T4">
-        <v>0.007622184892756381</v>
+        <v>0.004103328513612134</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,40 +732,40 @@
         <v>21.806844</v>
       </c>
       <c r="I5">
-        <v>0.2271484186426865</v>
+        <v>0.09943605305674341</v>
       </c>
       <c r="J5">
-        <v>0.3030576522007011</v>
+        <v>0.1404751766759988</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.12783</v>
+        <v>0.1011536666666667</v>
       </c>
       <c r="N5">
-        <v>0.38349</v>
+        <v>0.303461</v>
       </c>
       <c r="O5">
-        <v>0.007411519513986452</v>
+        <v>0.007629860605400263</v>
       </c>
       <c r="P5">
-        <v>0.008565831359064333</v>
+        <v>0.008254451482408482</v>
       </c>
       <c r="Q5">
-        <v>0.9291896228399998</v>
+        <v>0.7352807430093331</v>
       </c>
       <c r="R5">
-        <v>8.36270660556</v>
+        <v>6.617526687083999</v>
       </c>
       <c r="S5">
-        <v>0.001683514937341435</v>
+        <v>0.000758683223974137</v>
       </c>
       <c r="T5">
-        <v>0.002595940740825177</v>
+        <v>0.001159545530354792</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>21.806844</v>
       </c>
       <c r="I6">
-        <v>0.2271484186426865</v>
+        <v>0.09943605305674341</v>
       </c>
       <c r="J6">
-        <v>0.3030576522007011</v>
+        <v>0.1404751766759988</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -812,10 +812,10 @@
         <v>30.440863</v>
       </c>
       <c r="O6">
-        <v>0.5883153410704013</v>
+        <v>0.7653686681256785</v>
       </c>
       <c r="P6">
-        <v>0.6799428899903026</v>
+        <v>0.8280227993585454</v>
       </c>
       <c r="Q6">
         <v>73.75768340737466</v>
@@ -824,10 +824,10 @@
         <v>663.8191506663719</v>
       </c>
       <c r="S6">
-        <v>0.1336348993873744</v>
+        <v>0.07610523949171401</v>
       </c>
       <c r="T6">
-        <v>0.2060618958710207</v>
+        <v>0.1163166490316468</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>21.806844</v>
       </c>
       <c r="I7">
-        <v>0.2271484186426865</v>
+        <v>0.09943605305674341</v>
       </c>
       <c r="J7">
-        <v>0.3030576522007011</v>
+        <v>0.1404751766759988</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.972691</v>
+        <v>3.0094955</v>
       </c>
       <c r="N7">
-        <v>13.945382</v>
+        <v>6.018991</v>
       </c>
       <c r="O7">
-        <v>0.4042731394156123</v>
+        <v>0.2270014712689213</v>
       </c>
       <c r="P7">
-        <v>0.3114912786506331</v>
+        <v>0.1637227491590462</v>
       </c>
       <c r="Q7">
-        <v>50.68412829906799</v>
+        <v>21.875866295734</v>
       </c>
       <c r="R7">
-        <v>304.104769794408</v>
+        <v>131.255197774404</v>
       </c>
       <c r="S7">
-        <v>0.09183000431797066</v>
+        <v>0.02257213034105527</v>
       </c>
       <c r="T7">
-        <v>0.09439981558885523</v>
+        <v>0.02299898211399725</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,46 +912,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.070339</v>
+        <v>0.09795233333333332</v>
       </c>
       <c r="H8">
-        <v>0.211017</v>
+        <v>0.293857</v>
       </c>
       <c r="I8">
-        <v>0.002198033693308568</v>
+        <v>0.001339945397100812</v>
       </c>
       <c r="J8">
-        <v>0.002932580092490016</v>
+        <v>0.001892965987764162</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.12783</v>
+        <v>0.1011536666666667</v>
       </c>
       <c r="N8">
-        <v>0.38349</v>
+        <v>0.303461</v>
       </c>
       <c r="O8">
-        <v>0.007411519513986452</v>
+        <v>0.007629860605400263</v>
       </c>
       <c r="P8">
-        <v>0.008565831359064333</v>
+        <v>0.008254451482408482</v>
       </c>
       <c r="Q8">
-        <v>0.008991434369999999</v>
+        <v>0.00990823767522222</v>
       </c>
       <c r="R8">
-        <v>0.08092290933</v>
+        <v>0.08917413907699999</v>
       </c>
       <c r="S8">
-        <v>1.629076961035616E-05</v>
+        <v>1.022359659872689E-05</v>
       </c>
       <c r="T8">
-        <v>2.511998651921876E-05</v>
+        <v>1.562539590384872E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.070339</v>
+        <v>0.09795233333333332</v>
       </c>
       <c r="H9">
-        <v>0.211017</v>
+        <v>0.293857</v>
       </c>
       <c r="I9">
-        <v>0.002198033693308568</v>
+        <v>0.001339945397100812</v>
       </c>
       <c r="J9">
-        <v>0.002932580092490016</v>
+        <v>0.001892965987764162</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,22 +998,22 @@
         <v>30.440863</v>
       </c>
       <c r="O9">
-        <v>0.5883153410704013</v>
+        <v>0.7653686681256785</v>
       </c>
       <c r="P9">
-        <v>0.6799428899903026</v>
+        <v>0.8280227993585454</v>
       </c>
       <c r="Q9">
-        <v>0.7137266208523333</v>
+        <v>0.9939178531767777</v>
       </c>
       <c r="R9">
-        <v>6.423539587671001</v>
+        <v>8.945260678591</v>
       </c>
       <c r="S9">
-        <v>0.001293136941963064</v>
+        <v>0.001025552223940182</v>
       </c>
       <c r="T9">
-        <v>0.00199398698321569</v>
+        <v>0.001567418996278995</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.070339</v>
+        <v>0.09795233333333332</v>
       </c>
       <c r="H10">
-        <v>0.211017</v>
+        <v>0.293857</v>
       </c>
       <c r="I10">
-        <v>0.002198033693308568</v>
+        <v>0.001339945397100812</v>
       </c>
       <c r="J10">
-        <v>0.002932580092490016</v>
+        <v>0.001892965987764162</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.972691</v>
+        <v>3.0094955</v>
       </c>
       <c r="N10">
-        <v>13.945382</v>
+        <v>6.018991</v>
       </c>
       <c r="O10">
-        <v>0.4042731394156123</v>
+        <v>0.2270014712689213</v>
       </c>
       <c r="P10">
-        <v>0.3114912786506331</v>
+        <v>0.1637227491590462</v>
       </c>
       <c r="Q10">
-        <v>0.490452112249</v>
+        <v>0.2947871063811666</v>
       </c>
       <c r="R10">
-        <v>2.942712673494</v>
+        <v>1.768722638287</v>
       </c>
       <c r="S10">
-        <v>0.0008886059817351477</v>
+        <v>0.0003041695765619032</v>
       </c>
       <c r="T10">
-        <v>0.0009134731227551069</v>
+        <v>0.0003099215955813179</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>24.046532</v>
+        <v>64.06892400000001</v>
       </c>
       <c r="H11">
-        <v>48.093064</v>
+        <v>128.137848</v>
       </c>
       <c r="I11">
-        <v>0.7514335936425405</v>
+        <v>0.8764350668284411</v>
       </c>
       <c r="J11">
-        <v>0.6683668238731867</v>
+        <v>0.8254375019458241</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.12783</v>
+        <v>0.1011536666666667</v>
       </c>
       <c r="N11">
-        <v>0.38349</v>
+        <v>0.303461</v>
       </c>
       <c r="O11">
-        <v>0.007411519513986452</v>
+        <v>0.007629860605400263</v>
       </c>
       <c r="P11">
-        <v>0.008565831359064333</v>
+        <v>0.008254451482408482</v>
       </c>
       <c r="Q11">
-        <v>3.07386818556</v>
+        <v>6.480806581988</v>
       </c>
       <c r="R11">
-        <v>18.44320911336</v>
+        <v>38.88483949192801</v>
       </c>
       <c r="S11">
-        <v>0.005569264742746655</v>
+        <v>0.00668707738958567</v>
       </c>
       <c r="T11">
-        <v>0.005725117499291171</v>
+        <v>0.006813533811572263</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>24.046532</v>
+        <v>64.06892400000001</v>
       </c>
       <c r="H12">
-        <v>48.093064</v>
+        <v>128.137848</v>
       </c>
       <c r="I12">
-        <v>0.7514335936425405</v>
+        <v>0.8764350668284411</v>
       </c>
       <c r="J12">
-        <v>0.6683668238731867</v>
+        <v>0.8254375019458241</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1184,22 +1184,22 @@
         <v>30.440863</v>
       </c>
       <c r="O12">
-        <v>0.5883153410704013</v>
+        <v>0.7653686681256785</v>
       </c>
       <c r="P12">
-        <v>0.6799428899903026</v>
+        <v>0.8280227993585454</v>
       </c>
       <c r="Q12">
-        <v>243.9990620790387</v>
+        <v>650.1044460138041</v>
       </c>
       <c r="R12">
-        <v>1463.994372474232</v>
+        <v>3900.626676082825</v>
       </c>
       <c r="S12">
-        <v>0.4420799109355685</v>
+        <v>0.6707959397971239</v>
       </c>
       <c r="T12">
-        <v>0.4544512697979741</v>
+        <v>0.6834810710567061</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>24.046532</v>
+        <v>64.06892400000001</v>
       </c>
       <c r="H13">
-        <v>48.093064</v>
+        <v>128.137848</v>
       </c>
       <c r="I13">
-        <v>0.7514335936425405</v>
+        <v>0.8764350668284411</v>
       </c>
       <c r="J13">
-        <v>0.6683668238731867</v>
+        <v>0.8254375019458241</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.972691</v>
+        <v>3.0094955</v>
       </c>
       <c r="N13">
-        <v>13.945382</v>
+        <v>6.018991</v>
       </c>
       <c r="O13">
-        <v>0.4042731394156123</v>
+        <v>0.2270014712689213</v>
       </c>
       <c r="P13">
-        <v>0.3114912786506331</v>
+        <v>0.1637227491590462</v>
       </c>
       <c r="Q13">
-        <v>167.669037257612</v>
+        <v>192.815138467842</v>
       </c>
       <c r="R13">
-        <v>670.676149030448</v>
+        <v>771.2605538713681</v>
       </c>
       <c r="S13">
-        <v>0.3037844179642253</v>
+        <v>0.1989520496417314</v>
       </c>
       <c r="T13">
-        <v>0.2081904365759214</v>
+        <v>0.1351428970775459</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.028134</v>
+        <v>0.3690323333333334</v>
       </c>
       <c r="H14">
-        <v>0.084402</v>
+        <v>1.107097</v>
       </c>
       <c r="I14">
-        <v>0.0008791634786895356</v>
+        <v>0.005048202116315478</v>
       </c>
       <c r="J14">
-        <v>0.001172965329648049</v>
+        <v>0.007131689788420014</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.12783</v>
+        <v>0.1011536666666667</v>
       </c>
       <c r="N14">
-        <v>0.38349</v>
+        <v>0.303461</v>
       </c>
       <c r="O14">
-        <v>0.007411519513986452</v>
+        <v>0.007629860605400263</v>
       </c>
       <c r="P14">
-        <v>0.008565831359064333</v>
+        <v>0.008254451482408482</v>
       </c>
       <c r="Q14">
-        <v>0.00359636922</v>
+        <v>0.03732897363522222</v>
       </c>
       <c r="R14">
-        <v>0.03236732298</v>
+        <v>0.335960762717</v>
       </c>
       <c r="S14">
-        <v>6.515937278291706E-06</v>
+        <v>3.851707845537371E-05</v>
       </c>
       <c r="T14">
-        <v>1.004742320379449E-05</v>
+        <v>5.886818734610102E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.028134</v>
+        <v>0.3690323333333334</v>
       </c>
       <c r="H15">
-        <v>0.084402</v>
+        <v>1.107097</v>
       </c>
       <c r="I15">
-        <v>0.0008791634786895356</v>
+        <v>0.005048202116315478</v>
       </c>
       <c r="J15">
-        <v>0.001172965329648049</v>
+        <v>0.007131689788420014</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>30.440863</v>
       </c>
       <c r="O15">
-        <v>0.5883153410704013</v>
+        <v>0.7653686681256785</v>
       </c>
       <c r="P15">
-        <v>0.6799428899903026</v>
+        <v>0.8280227993585454</v>
       </c>
       <c r="Q15">
-        <v>0.285474413214</v>
+        <v>3.744554233856778</v>
       </c>
       <c r="R15">
-        <v>2.569269718926</v>
+        <v>33.700988104711</v>
       </c>
       <c r="S15">
-        <v>0.0005172253618218746</v>
+        <v>0.003863735730193609</v>
       </c>
       <c r="T15">
-        <v>0.0007975494360993223</v>
+        <v>0.005905201742764292</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.028134</v>
+        <v>0.3690323333333334</v>
       </c>
       <c r="H16">
-        <v>0.084402</v>
+        <v>1.107097</v>
       </c>
       <c r="I16">
-        <v>0.0008791634786895356</v>
+        <v>0.005048202116315478</v>
       </c>
       <c r="J16">
-        <v>0.001172965329648049</v>
+        <v>0.007131689788420014</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.972691</v>
+        <v>3.0094955</v>
       </c>
       <c r="N16">
-        <v>13.945382</v>
+        <v>6.018991</v>
       </c>
       <c r="O16">
-        <v>0.4042731394156123</v>
+        <v>0.2270014712689213</v>
       </c>
       <c r="P16">
-        <v>0.3114912786506331</v>
+        <v>0.1637227491590462</v>
       </c>
       <c r="Q16">
-        <v>0.196169688594</v>
+        <v>1.110601146521167</v>
       </c>
       <c r="R16">
-        <v>1.177018131564</v>
+        <v>6.663606879126999</v>
       </c>
       <c r="S16">
-        <v>0.0003554221795893693</v>
+        <v>0.001145949307666495</v>
       </c>
       <c r="T16">
-        <v>0.0003653684703449321</v>
+        <v>0.001167619858309621</v>
       </c>
     </row>
   </sheetData>
